--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
@@ -369,202 +369,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>0.893730324430364</v>
-      </c>
-      <c r="D3">
-        <v>-1.586614087300087</v>
-      </c>
       <c r="E3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="F3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="G3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="H3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="I3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="J3">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="K3">
         <v>-1.61188520630966</v>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-1.61188520630966</v>
       </c>
-      <c r="BA3">
-        <v>-1.61188520630966</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>0.9750507384474583</v>
-      </c>
-      <c r="D4">
-        <v>-1.40775932756797</v>
-      </c>
-      <c r="E4">
-        <v>-0.8256244756900011</v>
-      </c>
-      <c r="F4">
-        <v>0.5994119800717845</v>
-      </c>
       <c r="G4">
         <v>1.128600547465064</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>1.128600547465064</v>
       </c>
-      <c r="BA4">
-        <v>1.128600547465064</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.8323416489321778</v>
-      </c>
-      <c r="D5">
-        <v>-1.529078809892204</v>
-      </c>
-      <c r="E5">
-        <v>0.1337929971273244</v>
-      </c>
-      <c r="F5">
-        <v>0.7372744692830668</v>
-      </c>
-      <c r="G5">
-        <v>1.813262858385434</v>
-      </c>
-      <c r="H5">
-        <v>2.397632938760519</v>
-      </c>
       <c r="I5">
         <v>2.397632938760519</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>2.397632938760519</v>
       </c>
-      <c r="BA5">
-        <v>2.397632938760519</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.7661287287656693</v>
-      </c>
-      <c r="F6">
-        <v>-0.06243501309044497</v>
-      </c>
-      <c r="G6">
-        <v>1.308612266820308</v>
-      </c>
-      <c r="H6">
-        <v>1.750439528417647</v>
-      </c>
-      <c r="I6">
-        <v>2.168477229273624</v>
-      </c>
-      <c r="J6">
-        <v>0.6997950332806147</v>
-      </c>
       <c r="K6">
         <v>0.5991205513815823</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>0.5991205513815823</v>
       </c>
-      <c r="BA6">
-        <v>0.5991205513815823</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.830294427426792</v>
-      </c>
-      <c r="H7">
-        <v>1.315160102356083</v>
-      </c>
-      <c r="I7">
-        <v>2.283499119338317</v>
-      </c>
-      <c r="J7">
-        <v>1.006055044644127</v>
-      </c>
       <c r="K7">
-        <v>1.08005015963426</v>
+        <v>0.4163953164477929</v>
       </c>
       <c r="L7">
-        <v>0.2497225331041353</v>
+        <v>0.03393100538855442</v>
       </c>
       <c r="M7">
         <v>0.5555179840670776</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>0.5555179840670776</v>
       </c>
-      <c r="BA7">
-        <v>0.5555179840670776</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.808617730023321</v>
-      </c>
-      <c r="J8">
-        <v>0.8043057907888285</v>
-      </c>
       <c r="K8">
-        <v>1.752063638573387</v>
+        <v>0.4398843612147374</v>
       </c>
       <c r="L8">
-        <v>1.498965047729728</v>
+        <v>0.3351240474928963</v>
       </c>
       <c r="M8">
-        <v>1.876770729193722</v>
+        <v>1.653207170606596</v>
       </c>
       <c r="N8">
-        <v>1.902492721194715</v>
+        <v>1.743169463154315</v>
       </c>
       <c r="O8">
         <v>1.749602965204744</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>1.749602965204744</v>
       </c>
-      <c r="BA8">
-        <v>1.749602965204744</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.236857265467273</v>
-      </c>
       <c r="L9">
-        <v>1.021973022013523</v>
+        <v>0.3496379557684337</v>
       </c>
       <c r="M9">
-        <v>1.756978380767826</v>
+        <v>0.9304702147005406</v>
       </c>
       <c r="N9">
-        <v>2.075347032039199</v>
+        <v>1.13752746419209</v>
       </c>
       <c r="O9">
-        <v>1.817887133274421</v>
+        <v>1.270027657109818</v>
       </c>
       <c r="P9">
-        <v>1.412370212124414</v>
+        <v>1.311489985227077</v>
       </c>
       <c r="Q9">
         <v>1.513781691628258</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>1.513781691628258</v>
       </c>
-      <c r="BA9">
-        <v>1.513781691628258</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.192297099808437</v>
-      </c>
       <c r="N10">
-        <v>1.344297876815093</v>
+        <v>0.8594203625062136</v>
       </c>
       <c r="O10">
-        <v>1.899676345340406</v>
+        <v>0.9228291681213641</v>
       </c>
       <c r="P10">
-        <v>1.542507290810158</v>
+        <v>1.069982194174801</v>
       </c>
       <c r="Q10">
-        <v>1.740574921258409</v>
+        <v>1.579162878845075</v>
       </c>
       <c r="R10">
-        <v>1.834894614572802</v>
+        <v>1.721454720714122</v>
       </c>
       <c r="S10">
         <v>1.72540577912379</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>1.72540577912379</v>
       </c>
-      <c r="BA10">
-        <v>1.72540577912379</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.31070858311928</v>
-      </c>
       <c r="P11">
-        <v>1.110449944800496</v>
+        <v>0.8936351149154698</v>
       </c>
       <c r="Q11">
-        <v>1.497714964910668</v>
+        <v>1.088079668557307</v>
       </c>
       <c r="R11">
-        <v>1.934407896550039</v>
+        <v>1.335637690776181</v>
       </c>
       <c r="S11">
-        <v>1.807349526896274</v>
+        <v>1.452243308058287</v>
       </c>
       <c r="T11">
-        <v>1.859704669579565</v>
+        <v>1.818507532114921</v>
       </c>
       <c r="U11">
         <v>2.026192376700298</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>2.026192376700298</v>
       </c>
-      <c r="BA11">
-        <v>2.026192376700298</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.16828996047742</v>
-      </c>
       <c r="R12">
-        <v>1.685970483766042</v>
+        <v>1.072517868848011</v>
       </c>
       <c r="S12">
-        <v>1.785143159808622</v>
+        <v>1.127165111070139</v>
       </c>
       <c r="T12">
-        <v>1.747218465300882</v>
+        <v>1.41495314213913</v>
       </c>
       <c r="U12">
-        <v>2.115367468044549</v>
+        <v>2.068578555939404</v>
       </c>
       <c r="V12">
-        <v>2.523623631786731</v>
+        <v>2.23057583006443</v>
       </c>
       <c r="W12">
-        <v>2.518198850986875</v>
+        <v>2.466427116525516</v>
       </c>
       <c r="X12">
-        <v>2.31852959217409</v>
+        <v>2.313955758667841</v>
       </c>
       <c r="Y12">
         <v>2.344166347125687</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>2.344166347125687</v>
       </c>
-      <c r="BA12">
-        <v>2.344166347125687</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.319811377998414</v>
-      </c>
-      <c r="S13">
-        <v>1.341249281444301</v>
-      </c>
       <c r="T13">
-        <v>1.528457108088976</v>
+        <v>1.168155811095062</v>
       </c>
       <c r="U13">
-        <v>1.709813811252814</v>
+        <v>1.439676578745064</v>
       </c>
       <c r="V13">
-        <v>2.242637431381778</v>
+        <v>1.546132847114134</v>
       </c>
       <c r="W13">
-        <v>2.237053039764336</v>
+        <v>1.859723853307749</v>
       </c>
       <c r="X13">
-        <v>1.811228693949229</v>
+        <v>1.449675877460654</v>
       </c>
       <c r="Y13">
-        <v>1.988586823028471</v>
+        <v>1.651658474923545</v>
       </c>
       <c r="Z13">
-        <v>1.482188835478793</v>
+        <v>1.34715816715496</v>
       </c>
       <c r="AA13">
-        <v>1.216415718128294</v>
+        <v>1.128030950601477</v>
       </c>
       <c r="AB13">
-        <v>1.001446656562432</v>
+        <v>0.9462474687678801</v>
       </c>
       <c r="AC13">
         <v>0.9005461608770915</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>0.9005461608770915</v>
       </c>
-      <c r="BA13">
-        <v>0.9005461608770915</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.285186509891645</v>
-      </c>
-      <c r="U14">
-        <v>1.39767622887601</v>
-      </c>
-      <c r="V14">
-        <v>1.910556919278661</v>
-      </c>
       <c r="W14">
-        <v>1.93563198348663</v>
+        <v>1.445771423100095</v>
       </c>
       <c r="X14">
-        <v>1.771533745324327</v>
+        <v>1.277970792285088</v>
       </c>
       <c r="Y14">
-        <v>1.531580598895577</v>
+        <v>1.372381782085896</v>
       </c>
       <c r="Z14">
-        <v>1.280779462225867</v>
+        <v>1.186882640643594</v>
       </c>
       <c r="AA14">
-        <v>1.319239871711941</v>
+        <v>0.9160236606447159</v>
       </c>
       <c r="AB14">
-        <v>0.9535061289851043</v>
+        <v>0.4351554058081408</v>
       </c>
       <c r="AC14">
-        <v>0.4500589383543696</v>
+        <v>0.115841687688345</v>
       </c>
       <c r="AD14">
-        <v>0.3880736212224845</v>
+        <v>0.1938172373549873</v>
       </c>
       <c r="AE14">
-        <v>-1.71906045117115</v>
+        <v>0.1798886261929367</v>
       </c>
       <c r="AF14">
-        <v>-4.378957680654993</v>
+        <v>-4.43626840667447</v>
       </c>
       <c r="AG14">
         <v>-4.43626840667447</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-4.43626840667447</v>
       </c>
-      <c r="BA14">
-        <v>-4.43626840667447</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.580095469939091</v>
-      </c>
-      <c r="W15">
-        <v>1.580151255151896</v>
-      </c>
-      <c r="X15">
-        <v>1.452145373018854</v>
-      </c>
-      <c r="Y15">
-        <v>1.287533141712482</v>
-      </c>
-      <c r="Z15">
-        <v>1.273833000415237</v>
-      </c>
       <c r="AA15">
-        <v>1.431756740173173</v>
+        <v>1.111703799203134</v>
       </c>
       <c r="AB15">
-        <v>1.259610828816515</v>
+        <v>0.925555108449827</v>
       </c>
       <c r="AC15">
-        <v>1.378427133278715</v>
+        <v>0.7690520199996165</v>
       </c>
       <c r="AD15">
-        <v>1.395149944926244</v>
+        <v>0.8212189468394859</v>
       </c>
       <c r="AE15">
-        <v>2.624910644707001</v>
+        <v>0.8029144802146782</v>
       </c>
       <c r="AF15">
-        <v>4.711619913745535</v>
+        <v>-14.53740902633983</v>
       </c>
       <c r="AG15">
-        <v>2.678040396387193</v>
+        <v>-2.092304328310923</v>
       </c>
       <c r="AH15">
-        <v>-0.1114187992928839</v>
+        <v>-2.180664970010993</v>
       </c>
       <c r="AI15">
-        <v>-1.065841615027951</v>
+        <v>-1.929204335549095</v>
       </c>
       <c r="AJ15">
-        <v>-1.010673730825384</v>
+        <v>-1.513408827666285</v>
       </c>
       <c r="AK15">
         <v>-1.513408827666285</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-1.513408827666285</v>
       </c>
-      <c r="BA15">
-        <v>-1.513408827666285</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.524201467755493</v>
-      </c>
-      <c r="Z16">
-        <v>1.469529993005492</v>
-      </c>
-      <c r="AA16">
-        <v>1.501108293897357</v>
-      </c>
-      <c r="AB16">
-        <v>1.414496404712184</v>
-      </c>
-      <c r="AC16">
-        <v>1.413592332314595</v>
-      </c>
-      <c r="AD16">
-        <v>1.467809921626184</v>
-      </c>
       <c r="AE16">
-        <v>2.049822583590899</v>
+        <v>0.9982575013909978</v>
       </c>
       <c r="AF16">
-        <v>2.418959488498107</v>
+        <v>-37.79569353954485</v>
       </c>
       <c r="AG16">
-        <v>2.114743464023872</v>
+        <v>0.60241216268766</v>
       </c>
       <c r="AH16">
-        <v>3.269917916101805</v>
+        <v>0.6409010839486307</v>
       </c>
       <c r="AI16">
-        <v>3.829077445426443</v>
+        <v>0.8768515943972544</v>
       </c>
       <c r="AJ16">
-        <v>5.41299470703982</v>
+        <v>1.518684466917741</v>
       </c>
       <c r="AK16">
-        <v>5.01418218718106</v>
+        <v>1.533339625605379</v>
       </c>
       <c r="AL16">
-        <v>2.690143847143123</v>
+        <v>1.586146963184465</v>
       </c>
       <c r="AM16">
-        <v>2.200566026798723</v>
+        <v>1.632302710072264</v>
       </c>
       <c r="AN16">
-        <v>1.906776630685214</v>
+        <v>1.618732201786743</v>
       </c>
       <c r="AO16">
         <v>1.618732201786743</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>1.618732201786743</v>
       </c>
-      <c r="BA16">
-        <v>1.618732201786743</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.441707449070551</v>
-      </c>
-      <c r="AD17">
-        <v>1.442049299039083</v>
-      </c>
-      <c r="AE17">
-        <v>1.443539631180357</v>
-      </c>
-      <c r="AF17">
-        <v>1.486612345819327</v>
-      </c>
-      <c r="AG17">
-        <v>1.394059390346691</v>
-      </c>
       <c r="AH17">
-        <v>1.432796806712133</v>
+        <v>0.7061456178402814</v>
       </c>
       <c r="AI17">
-        <v>1.427880898242373</v>
+        <v>0.8141416571871396</v>
       </c>
       <c r="AJ17">
-        <v>1.497156060704774</v>
+        <v>0.9656780650957986</v>
       </c>
       <c r="AK17">
-        <v>2.404638348775623</v>
+        <v>0.9602057227526828</v>
       </c>
       <c r="AL17">
-        <v>3.945188541354372</v>
+        <v>0.9586871495637528</v>
       </c>
       <c r="AM17">
-        <v>3.751396336682911</v>
+        <v>0.9471575920676267</v>
       </c>
       <c r="AN17">
-        <v>3.996132459072443</v>
+        <v>0.8989718345186803</v>
       </c>
       <c r="AO17">
-        <v>-0.0257499723208543</v>
+        <v>0.492911192428136</v>
       </c>
       <c r="AP17">
-        <v>-0.07579018556103101</v>
+        <v>0.1380617204474799</v>
       </c>
       <c r="AQ17">
-        <v>0.03476567089377713</v>
+        <v>0.01243672673012508</v>
       </c>
       <c r="AR17">
-        <v>-0.006131358757832661</v>
+        <v>-0.09609276733164585</v>
       </c>
       <c r="AS17">
         <v>-0.09609276733164585</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-0.09609276733164585</v>
       </c>
-      <c r="BA17">
-        <v>-0.09609276733164585</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.184715782724699</v>
-      </c>
-      <c r="AH18">
-        <v>1.050412734666262</v>
-      </c>
-      <c r="AI18">
-        <v>1.015247521591722</v>
-      </c>
-      <c r="AJ18">
-        <v>1.153413147527749</v>
-      </c>
-      <c r="AK18">
-        <v>1.010656874577687</v>
-      </c>
       <c r="AL18">
-        <v>1.162987695152196</v>
+        <v>0.9071533173119706</v>
       </c>
       <c r="AM18">
-        <v>1.665058510744499</v>
+        <v>0.8627390685297609</v>
       </c>
       <c r="AN18">
-        <v>1.904682981629868</v>
+        <v>0.8218532150007452</v>
       </c>
       <c r="AO18">
-        <v>1.480526143774319</v>
+        <v>0.7916009087286957</v>
       </c>
       <c r="AP18">
-        <v>1.432297689379536</v>
+        <v>0.6801419395370711</v>
       </c>
       <c r="AQ18">
-        <v>1.5721616075697</v>
+        <v>0.5779606211723021</v>
       </c>
       <c r="AR18">
-        <v>1.257115842174117</v>
+        <v>0.3995394213445191</v>
       </c>
       <c r="AS18">
-        <v>0.9632741816949952</v>
+        <v>0.2100922168233987</v>
       </c>
       <c r="AT18">
-        <v>0.4484143214516623</v>
+        <v>0.026532539029267</v>
       </c>
       <c r="AU18">
-        <v>0.09018476422182342</v>
+        <v>0.01966607787367014</v>
       </c>
       <c r="AV18">
-        <v>0.09179388078603967</v>
+        <v>-0.02761034355766023</v>
       </c>
       <c r="AW18">
         <v>-0.02761034355766023</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-0.02761034355766023</v>
       </c>
-      <c r="BA18">
-        <v>-0.02761034355766023</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>1.142632891895201</v>
-      </c>
-      <c r="AL19">
-        <v>1.090014307900899</v>
-      </c>
-      <c r="AM19">
-        <v>1.063265065973762</v>
-      </c>
-      <c r="AN19">
-        <v>1.070850249907407</v>
-      </c>
-      <c r="AO19">
-        <v>1.333422439789977</v>
-      </c>
       <c r="AP19">
-        <v>1.025007245787424</v>
+        <v>0.697282090407314</v>
       </c>
       <c r="AQ19">
-        <v>1.076630632274012</v>
+        <v>0.6594279707562434</v>
       </c>
       <c r="AR19">
-        <v>1.172515430363585</v>
+        <v>0.6042455340249608</v>
       </c>
       <c r="AS19">
-        <v>1.598684321561628</v>
+        <v>0.6196066582925042</v>
       </c>
       <c r="AT19">
-        <v>1.561466521228816</v>
+        <v>0.5801787874785802</v>
       </c>
       <c r="AU19">
-        <v>1.596765107383735</v>
+        <v>0.5811853063761419</v>
       </c>
       <c r="AV19">
-        <v>1.580446709939154</v>
+        <v>0.5145439483255743</v>
       </c>
       <c r="AW19">
-        <v>0.842782598119185</v>
+        <v>0.5208382580577098</v>
       </c>
       <c r="AX19">
-        <v>0.5405494419323364</v>
+        <v>0.563860530038518</v>
       </c>
       <c r="AY19">
-        <v>0.6051432752119057</v>
+        <v>0.5364374648222148</v>
       </c>
       <c r="AZ19">
-        <v>0.5151080441973876</v>
-      </c>
-      <c r="BA19">
         <v>0.5152269879013183</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>0.7888266904208407</v>
-      </c>
-      <c r="AP20">
-        <v>0.773174840464641</v>
-      </c>
-      <c r="AQ20">
-        <v>0.799307093709567</v>
-      </c>
-      <c r="AR20">
-        <v>0.7685440634828566</v>
-      </c>
-      <c r="AS20">
-        <v>0.8363593845462036</v>
-      </c>
       <c r="AT20">
-        <v>0.8690512457763422</v>
+        <v>0.5974640048577173</v>
       </c>
       <c r="AU20">
-        <v>1.003444065158599</v>
+        <v>0.6032627893443054</v>
       </c>
       <c r="AV20">
-        <v>1.034045836911357</v>
+        <v>0.5936921924291516</v>
       </c>
       <c r="AW20">
-        <v>1.371270397310065</v>
+        <v>0.6187435008626396</v>
       </c>
       <c r="AX20">
-        <v>0.5046545459032048</v>
+        <v>0.6380016822143952</v>
       </c>
       <c r="AY20">
-        <v>0.5955127736224863</v>
+        <v>0.591050555601802</v>
       </c>
       <c r="AZ20">
-        <v>0.9526646531309746</v>
-      </c>
-      <c r="BA20">
-        <v>0.9237678276839301</v>
+        <v>0.5355893905819142</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>0.7269079339962348</v>
-      </c>
-      <c r="AT21">
-        <v>0.6839915968760213</v>
-      </c>
-      <c r="AU21">
-        <v>0.6595300973717633</v>
-      </c>
-      <c r="AV21">
-        <v>0.6607935460263503</v>
-      </c>
-      <c r="AW21">
-        <v>0.7728525477600945</v>
-      </c>
       <c r="AX21">
-        <v>0.5007548605557632</v>
+        <v>0.6327552154629545</v>
       </c>
       <c r="AY21">
-        <v>0.4989974879726189</v>
+        <v>0.5952518164518361</v>
       </c>
       <c r="AZ21">
-        <v>1.150110968527418</v>
-      </c>
-      <c r="BA21">
-        <v>1.525725899530639</v>
+        <v>0.5572822470752303</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>0.5687660692248908</v>
-      </c>
-      <c r="AX22">
-        <v>0.4607198672939239</v>
-      </c>
-      <c r="AY22">
-        <v>0.473891946786309</v>
-      </c>
-      <c r="AZ22">
-        <v>0.5158477180286836</v>
-      </c>
-      <c r="BA22">
-        <v>0.9151651864382826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.4938570115212926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-1.986210268830169</v>
       </c>
       <c r="AG17">
-        <v>-4.65090747647452</v>
+        <v>-8.242174525718626</v>
       </c>
       <c r="AH17">
         <v>-4.207901339433196</v>
@@ -2415,19 +2415,19 @@
         <v>-1.030455917249229</v>
       </c>
       <c r="AG18">
-        <v>-2.124426335989094</v>
+        <v>-26.14549659067492</v>
       </c>
       <c r="AH18">
-        <v>-0.2586890779524231</v>
+        <v>-2.354971109033133</v>
       </c>
       <c r="AI18">
-        <v>0.590529387845784</v>
+        <v>0.1158916911022878</v>
       </c>
       <c r="AJ18">
-        <v>0.4846423081591666</v>
+        <v>0.2860053465882251</v>
       </c>
       <c r="AK18">
-        <v>0.7583924418458787</v>
+        <v>0.4805388623355888</v>
       </c>
       <c r="AL18">
         <v>1.099928004397532</v>
@@ -2486,31 +2486,31 @@
         <v>0.4777641495149254</v>
       </c>
       <c r="AG19">
-        <v>0.5485013845754283</v>
+        <v>-13.58514649067983</v>
       </c>
       <c r="AH19">
-        <v>0.6670493899922914</v>
+        <v>0.6785303229722039</v>
       </c>
       <c r="AI19">
-        <v>0.9817808318997479</v>
+        <v>0.594792624022733</v>
       </c>
       <c r="AJ19">
-        <v>1.007198277338284</v>
+        <v>0.8288333393984937</v>
       </c>
       <c r="AK19">
-        <v>1.422024064575078</v>
+        <v>1.02866086817186</v>
       </c>
       <c r="AL19">
-        <v>1.794400784768979</v>
+        <v>1.661735028110956</v>
       </c>
       <c r="AM19">
-        <v>2.197506404324789</v>
+        <v>2.057199970983437</v>
       </c>
       <c r="AN19">
-        <v>1.990013243928312</v>
+        <v>2.073212743634301</v>
       </c>
       <c r="AO19">
-        <v>2.236860175919531</v>
+        <v>2.280775510838828</v>
       </c>
       <c r="AP19">
         <v>2.310042359896225</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>1.090684982178547</v>
-      </c>
       <c r="AJ20">
-        <v>1.189362244625825</v>
+        <v>1.055750296619218</v>
       </c>
       <c r="AK20">
-        <v>1.296360423324305</v>
+        <v>1.198867053115005</v>
       </c>
       <c r="AL20">
-        <v>1.316869244258689</v>
+        <v>1.353699150685816</v>
       </c>
       <c r="AM20">
-        <v>1.345036064408078</v>
+        <v>1.339171613132217</v>
       </c>
       <c r="AN20">
-        <v>1.178997008351645</v>
+        <v>1.314001387741381</v>
       </c>
       <c r="AO20">
-        <v>1.139002134681211</v>
+        <v>1.248471288055364</v>
       </c>
       <c r="AP20">
-        <v>0.8232644777432796</v>
+        <v>1.255295035968396</v>
       </c>
       <c r="AQ20">
-        <v>0.3858398712458078</v>
+        <v>0.7685013195685153</v>
       </c>
       <c r="AR20">
-        <v>-0.07210020592836042</v>
+        <v>0.1702535274276551</v>
       </c>
       <c r="AS20">
-        <v>-0.09588622947416248</v>
+        <v>0.05190692403960195</v>
       </c>
       <c r="AT20">
         <v>0.0464415346324687</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.302031179989616</v>
-      </c>
       <c r="AN21">
-        <v>1.175056961829446</v>
+        <v>1.293130449632818</v>
       </c>
       <c r="AO21">
-        <v>1.123209553701709</v>
+        <v>1.195058132281046</v>
       </c>
       <c r="AP21">
-        <v>1.107090377782782</v>
+        <v>1.140292164018275</v>
       </c>
       <c r="AQ21">
-        <v>0.9487085336255197</v>
+        <v>1.115540202483833</v>
       </c>
       <c r="AR21">
-        <v>0.7849798646630823</v>
+        <v>0.9294108124177747</v>
       </c>
       <c r="AS21">
-        <v>0.5889550719078596</v>
+        <v>0.8166564254529218</v>
       </c>
       <c r="AT21">
-        <v>0.4457784880425031</v>
+        <v>0.6780125808669935</v>
       </c>
       <c r="AU21">
-        <v>-0.03414634355979329</v>
+        <v>0.263148231647703</v>
       </c>
       <c r="AV21">
-        <v>-0.03189435474734159</v>
+        <v>0.0356275218485802</v>
       </c>
       <c r="AW21">
-        <v>-0.2385784141923808</v>
+        <v>-0.1509516149670653</v>
       </c>
       <c r="AX21">
         <v>-0.3101476031197148</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>0.9642340603391419</v>
-      </c>
       <c r="AR22">
-        <v>0.8851006776935844</v>
+        <v>0.9531369886254026</v>
       </c>
       <c r="AS22">
-        <v>0.8328950757674702</v>
+        <v>0.8936271672304708</v>
       </c>
       <c r="AT22">
-        <v>0.8707540785345858</v>
+        <v>0.8549922354194717</v>
       </c>
       <c r="AU22">
-        <v>0.8055775472706417</v>
+        <v>0.8874238669137835</v>
       </c>
       <c r="AV22">
-        <v>0.8280060478212947</v>
+        <v>0.8589821564190414</v>
       </c>
       <c r="AW22">
-        <v>0.6469810241417351</v>
+        <v>0.7654957281474362</v>
       </c>
       <c r="AX22">
-        <v>0.5215192790195111</v>
+        <v>0.6241787054042991</v>
       </c>
       <c r="AY22">
-        <v>0.16526024324508</v>
+        <v>0.2326854252627353</v>
       </c>
       <c r="AZ22">
-        <v>0.1720146172997206</v>
+        <v>0.2540664354640843</v>
       </c>
       <c r="BA22">
-        <v>-0.0960403240804597</v>
+        <v>-0.02895012887443871</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.8126857518186315</v>
-      </c>
       <c r="AV23">
-        <v>0.8192735014595387</v>
+        <v>0.8281721614376236</v>
       </c>
       <c r="AW23">
-        <v>0.7822535429936384</v>
+        <v>0.7970535393478917</v>
       </c>
       <c r="AX23">
-        <v>0.8099090199368497</v>
+        <v>0.7700438569670176</v>
       </c>
       <c r="AY23">
-        <v>0.8471324137523606</v>
+        <v>0.8248503612397817</v>
       </c>
       <c r="AZ23">
-        <v>0.822899916144304</v>
+        <v>0.869826012544328</v>
       </c>
       <c r="BA23">
-        <v>0.6335680123873866</v>
+        <v>0.7335820593375564</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.8264022457566966</v>
-      </c>
       <c r="AZ24">
-        <v>0.811868483808631</v>
+        <v>0.8324456569078098</v>
       </c>
       <c r="BA24">
-        <v>0.7588229182565742</v>
+        <v>0.7819613210276133</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-4.774178217057756</v>
+      </c>
+      <c r="G3">
+        <v>-4.760532145915263</v>
+      </c>
+      <c r="H3">
+        <v>-4.64769908574405</v>
+      </c>
+      <c r="I3">
+        <v>-4.79335465120081</v>
+      </c>
+      <c r="J3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="K3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="L3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="M3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="N3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="O3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="P3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Q3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="R3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="S3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="T3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="U3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="V3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="W3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="X3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Y3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Z3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AA3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AB3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AC3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AD3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AE3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AF3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AG3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AH3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AI3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AK3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AL3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AM3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AN3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AO3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AP3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AQ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AR3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AS3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AT3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AU3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AV3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AW3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AX3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AY3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AZ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="BA3">
+        <v>-5.109987415979145</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>3.14593994906931</v>
-      </c>
-      <c r="C4">
-        <v>3.17221104132186</v>
-      </c>
-      <c r="D4">
-        <v>3.193486170118964</v>
-      </c>
-      <c r="E4">
-        <v>3.193486170118964</v>
-      </c>
-      <c r="F4">
-        <v>3.164039117354767</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>3.164039117354789</v>
+        <v>0.26989196962941</v>
       </c>
       <c r="H4">
-        <v>3.164039117354789</v>
+        <v>1.97975191822708</v>
       </c>
       <c r="I4">
-        <v>3.164039117354789</v>
+        <v>2.02543877101049</v>
       </c>
       <c r="J4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="K4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="L4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="M4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="N4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="O4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="P4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Q4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="R4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="S4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="T4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="U4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="V4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="W4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="X4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Y4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Z4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AB4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AC4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AD4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AE4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AF4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AG4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AH4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AI4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AJ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AK4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AL4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AM4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AN4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AO4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AP4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AQ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AR4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AS4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AT4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AU4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AV4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AW4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AX4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AY4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AZ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="BA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>1.769627576887389</v>
-      </c>
-      <c r="E5">
-        <v>1.829031788027469</v>
-      </c>
-      <c r="F5">
-        <v>1.813179730027814</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>1.813179730027836</v>
+        <v>0.5668332592311476</v>
       </c>
       <c r="H5">
-        <v>1.552341155841508</v>
+        <v>2.743551941645195</v>
       </c>
       <c r="I5">
-        <v>1.552341155841508</v>
+        <v>3.872616460773104</v>
       </c>
       <c r="J5">
-        <v>1.552341155841508</v>
+        <v>3.452886745653183</v>
       </c>
       <c r="K5">
-        <v>1.552341155841508</v>
+        <v>3.494665504336103</v>
       </c>
       <c r="L5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="M5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="N5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="O5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="P5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Q5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="R5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="S5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="T5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="U5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="V5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="W5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="X5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Y5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Z5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AB5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AC5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AD5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AE5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AF5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AG5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AH5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AI5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AJ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AK5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AL5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AM5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AN5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AO5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AP5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AQ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AR5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AS5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AT5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AU5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AV5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AW5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AX5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AY5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AZ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="BA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-4.774178217057756</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-4.760532145915308</v>
+        <v>0.5556912706592199</v>
       </c>
       <c r="H6">
-        <v>-4.64769908574405</v>
+        <v>1.233002503793257</v>
       </c>
       <c r="I6">
-        <v>-4.79335465120082</v>
+        <v>2.302293339150996</v>
       </c>
       <c r="J6">
-        <v>-5.109987415979155</v>
+        <v>1.794132456841191</v>
       </c>
       <c r="K6">
-        <v>-5.109987415979155</v>
+        <v>1.385102141502936</v>
       </c>
       <c r="L6">
-        <v>-5.109987415979155</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="M6">
-        <v>-5.109987415979155</v>
+        <v>1.268854739375569</v>
       </c>
       <c r="N6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="O6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="P6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Q6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="R6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="S6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="T6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="U6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="V6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="W6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="X6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Y6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Z6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AB6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AC6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AD6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AE6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AF6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AG6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AH6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AI6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AJ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AK6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AL6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AM6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AN6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AO6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AP6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AQ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AR6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AS6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AT6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AU6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AV6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AW6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AX6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AY6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AZ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="BA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>0.26989196962941</v>
-      </c>
-      <c r="H7">
-        <v>1.97975191822708</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.025438771010513</v>
+        <v>1.54490873904416</v>
       </c>
       <c r="J7">
-        <v>2.025582195627118</v>
+        <v>1.358284230160933</v>
       </c>
       <c r="K7">
-        <v>2.025582195627118</v>
+        <v>1.418650881502459</v>
       </c>
       <c r="L7">
-        <v>2.253603114136604</v>
+        <v>1.158731032337301</v>
       </c>
       <c r="M7">
-        <v>2.253603114136604</v>
+        <v>-0.09990319152052285</v>
       </c>
       <c r="N7">
-        <v>2.253603114136604</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="O7">
-        <v>2.253603114136604</v>
+        <v>0.2576645950255863</v>
       </c>
       <c r="P7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Q7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="R7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="S7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="T7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="U7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="V7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="W7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="X7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Y7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Z7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AB7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AC7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AD7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AE7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AF7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AG7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AH7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AI7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AJ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AK7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AL7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AM7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AN7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AO7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AP7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AQ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AR7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AS7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AT7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AU7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AV7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AW7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AX7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AY7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AZ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="BA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>0.5668332592311476</v>
-      </c>
-      <c r="H8">
-        <v>2.743551941645217</v>
-      </c>
-      <c r="I8">
-        <v>3.872616460773104</v>
-      </c>
-      <c r="J8">
-        <v>3.452886745653183</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>3.494665504336103</v>
+        <v>1.301305159195043</v>
       </c>
       <c r="L8">
-        <v>3.67863308610874</v>
+        <v>1.278272370689049</v>
       </c>
       <c r="M8">
-        <v>3.67863308610874</v>
+        <v>0.9503446311848185</v>
       </c>
       <c r="N8">
-        <v>3.738382206110868</v>
+        <v>1.348985046565399</v>
       </c>
       <c r="O8">
-        <v>3.738382206110868</v>
+        <v>1.985365612881895</v>
       </c>
       <c r="P8">
-        <v>3.738382206110868</v>
+        <v>1.51977456621637</v>
       </c>
       <c r="Q8">
-        <v>3.738382206110868</v>
+        <v>1.523363320150239</v>
       </c>
       <c r="R8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="S8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="T8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="U8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="V8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="W8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="X8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Y8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Z8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AB8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AC8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AD8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AE8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AF8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AG8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AH8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AI8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AJ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AK8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AL8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AM8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AN8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AO8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AP8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AQ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AR8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AS8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AT8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AU8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AV8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AW8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AX8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AY8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AZ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="BA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.5556912706592421</v>
-      </c>
-      <c r="H9">
-        <v>1.233002503793235</v>
-      </c>
-      <c r="I9">
-        <v>2.302293339151018</v>
-      </c>
-      <c r="J9">
-        <v>1.794132456841213</v>
-      </c>
-      <c r="K9">
-        <v>1.385102141502959</v>
-      </c>
-      <c r="L9">
-        <v>1.239479831392853</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.268854739375591</v>
+        <v>1.107725130896919</v>
       </c>
       <c r="N9">
-        <v>1.354224369830725</v>
+        <v>1.219634028563665</v>
       </c>
       <c r="O9">
-        <v>1.354224369830725</v>
+        <v>1.683270396159897</v>
       </c>
       <c r="P9">
-        <v>1.165974434765649</v>
+        <v>0.7739869831244084</v>
       </c>
       <c r="Q9">
-        <v>1.165974434765649</v>
+        <v>1.326941625882849</v>
       </c>
       <c r="R9">
-        <v>1.165974434765649</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="S9">
-        <v>1.165974434765649</v>
+        <v>1.477690462805548</v>
       </c>
       <c r="T9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="U9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="V9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="W9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="X9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Y9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Z9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AB9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AC9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AD9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AE9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AF9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AG9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AH9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AI9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AJ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AK9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AL9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AM9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AN9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AO9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AP9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AQ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AR9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AS9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AT9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AU9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AV9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AW9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AX9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AY9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AZ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="BA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>1.54490873904416</v>
-      </c>
-      <c r="J10">
-        <v>1.358284230160911</v>
-      </c>
-      <c r="K10">
-        <v>1.418650881502459</v>
-      </c>
-      <c r="L10">
-        <v>1.158731032337301</v>
-      </c>
-      <c r="M10">
-        <v>-0.09990319152052285</v>
-      </c>
-      <c r="N10">
-        <v>0.2379616621361214</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.2576645950256085</v>
+        <v>1.34839744454085</v>
       </c>
       <c r="P10">
-        <v>-0.04267197517882071</v>
+        <v>1.108402910737083</v>
       </c>
       <c r="Q10">
-        <v>-0.04267197517882071</v>
+        <v>1.183026708734536</v>
       </c>
       <c r="R10">
-        <v>-0.04267197517882071</v>
+        <v>1.319057785023636</v>
       </c>
       <c r="S10">
-        <v>-0.04267197517882071</v>
+        <v>1.606236217798318</v>
       </c>
       <c r="T10">
-        <v>-0.04267197517882071</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="U10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="V10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="W10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="X10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Y10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Z10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AB10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AC10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AD10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AE10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AF10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AG10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AH10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AI10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AJ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AK10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AL10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AM10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AN10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AO10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AP10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AQ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AR10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AS10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AT10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AU10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AV10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AW10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AX10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AY10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AZ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="BA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.301305159195021</v>
-      </c>
-      <c r="L11">
-        <v>1.278272370689049</v>
-      </c>
-      <c r="M11">
-        <v>0.9503446311848185</v>
-      </c>
-      <c r="N11">
-        <v>1.348985046565354</v>
-      </c>
-      <c r="O11">
-        <v>1.985365612881851</v>
-      </c>
-      <c r="P11">
-        <v>1.51977456621637</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.523363320150262</v>
+        <v>1.196670423680835</v>
       </c>
       <c r="R11">
-        <v>1.529758493743416</v>
+        <v>1.225596186439182</v>
       </c>
       <c r="S11">
-        <v>1.529758493743416</v>
+        <v>1.516417875108278</v>
       </c>
       <c r="T11">
-        <v>1.529758493743416</v>
+        <v>1.236938064849946</v>
       </c>
       <c r="U11">
-        <v>1.529758493743416</v>
+        <v>1.730343268967593</v>
       </c>
       <c r="V11">
-        <v>1.529758493743416</v>
+        <v>2.161565493242668</v>
       </c>
       <c r="W11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="X11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Y11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Z11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AB11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AC11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AD11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AE11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AF11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AG11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AH11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AI11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AJ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AK11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AL11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AM11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AN11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AO11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AP11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AQ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AR11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AS11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AT11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AU11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AV11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AW11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AX11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AY11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AZ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="BA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>1.107725130896919</v>
-      </c>
-      <c r="N12">
-        <v>1.219634028563665</v>
-      </c>
-      <c r="O12">
-        <v>1.683270396159919</v>
-      </c>
-      <c r="P12">
-        <v>0.7739869831243862</v>
-      </c>
-      <c r="Q12">
-        <v>1.326941625882871</v>
-      </c>
-      <c r="R12">
-        <v>1.470039379455756</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.477690462805548</v>
+        <v>1.282539140971251</v>
       </c>
       <c r="T12">
-        <v>1.358758534900439</v>
+        <v>1.226835319831521</v>
       </c>
       <c r="U12">
-        <v>1.358758534900439</v>
+        <v>1.500360889159746</v>
       </c>
       <c r="V12">
-        <v>1.358758534900439</v>
+        <v>2.320541194291859</v>
       </c>
       <c r="W12">
-        <v>1.358758534900439</v>
+        <v>2.35389753325268</v>
       </c>
       <c r="X12">
-        <v>1.358758534900439</v>
+        <v>2.175463816693246</v>
       </c>
       <c r="Y12">
-        <v>1.358758534900439</v>
+        <v>2.306979482028892</v>
       </c>
       <c r="Z12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AA12">
-        <v>1.358758534900439</v>
+        <v>2.168907011988197</v>
       </c>
       <c r="AB12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AC12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AD12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AE12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AF12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AG12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AH12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AI12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AJ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AK12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AL12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AM12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AN12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AO12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AP12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AQ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AR12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AS12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AT12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AU12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AV12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AW12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AX12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AY12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AZ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="BA12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>1.348397444540872</v>
-      </c>
-      <c r="P13">
-        <v>1.108402910737083</v>
-      </c>
-      <c r="Q13">
-        <v>1.183026708734536</v>
-      </c>
-      <c r="R13">
-        <v>1.319057785023592</v>
-      </c>
-      <c r="S13">
-        <v>1.606236217798274</v>
-      </c>
-      <c r="T13">
-        <v>1.638797242243251</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.664905435092323</v>
+        <v>1.310911252469893</v>
       </c>
       <c r="V13">
-        <v>1.664905435092323</v>
+        <v>1.445095577630129</v>
       </c>
       <c r="W13">
-        <v>1.664905435092323</v>
+        <v>1.486421985254816</v>
       </c>
       <c r="X13">
-        <v>1.664905435092323</v>
+        <v>1.290682042302849</v>
       </c>
       <c r="Y13">
-        <v>1.664905435092323</v>
+        <v>1.375814392482444</v>
       </c>
       <c r="Z13">
-        <v>1.664905435092323</v>
+        <v>0.6374750548025609</v>
       </c>
       <c r="AA13">
-        <v>1.664905435092323</v>
+        <v>0.4816924525496091</v>
       </c>
       <c r="AB13">
-        <v>1.664905435092323</v>
+        <v>0.7385331577992371</v>
       </c>
       <c r="AC13">
-        <v>1.664905435092323</v>
+        <v>0.6388168203515621</v>
       </c>
       <c r="AD13">
-        <v>1.664905435092323</v>
+        <v>0.6066442151010376</v>
       </c>
       <c r="AE13">
-        <v>1.664905435092323</v>
+        <v>0.6401509985818787</v>
       </c>
       <c r="AF13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AG13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AH13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AI13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AJ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AK13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AL13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AM13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AN13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AO13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AP13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AQ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AR13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AS13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AT13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AU13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AV13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AW13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AX13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AY13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AZ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="BA13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.196670423680812</v>
-      </c>
-      <c r="R14">
-        <v>1.225596186439204</v>
-      </c>
-      <c r="S14">
-        <v>1.5164178751083</v>
-      </c>
-      <c r="T14">
-        <v>1.236938064849924</v>
-      </c>
-      <c r="U14">
-        <v>1.730343268967593</v>
-      </c>
-      <c r="V14">
-        <v>2.161565493242668</v>
-      </c>
-      <c r="W14">
-        <v>2.145670176886982</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.145670176886982</v>
+        <v>1.307194715337423</v>
       </c>
       <c r="Y14">
-        <v>2.145670176886982</v>
+        <v>1.203559142803634</v>
       </c>
       <c r="Z14">
-        <v>2.145670176886982</v>
+        <v>1.073293573322665</v>
       </c>
       <c r="AA14">
-        <v>2.145670176886982</v>
+        <v>0.9776390272966617</v>
       </c>
       <c r="AB14">
-        <v>2.145670176886982</v>
+        <v>1.193318741914795</v>
       </c>
       <c r="AC14">
-        <v>2.145670176886982</v>
+        <v>0.7331704885200852</v>
       </c>
       <c r="AD14">
-        <v>2.145670176886982</v>
+        <v>0.5721424576528022</v>
       </c>
       <c r="AE14">
-        <v>2.145670176886982</v>
+        <v>0.4580828524435532</v>
       </c>
       <c r="AF14">
-        <v>2.145670176886982</v>
+        <v>-1.986210268830169</v>
       </c>
       <c r="AG14">
-        <v>2.145670176886982</v>
+        <v>-8.242174525718637</v>
       </c>
       <c r="AH14">
-        <v>2.145670176886982</v>
+        <v>-4.207901339433196</v>
       </c>
       <c r="AI14">
-        <v>2.145670176886982</v>
+        <v>-4.227675443964374</v>
       </c>
       <c r="AJ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AK14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AL14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AM14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AN14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AO14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AP14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AQ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AR14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AS14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AT14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AU14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AV14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AW14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AX14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AY14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AZ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="BA14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.282539140971273</v>
-      </c>
-      <c r="T15">
-        <v>1.226835319831521</v>
-      </c>
-      <c r="U15">
-        <v>1.500360889159746</v>
-      </c>
-      <c r="V15">
-        <v>2.320541194291881</v>
-      </c>
-      <c r="W15">
-        <v>2.353897533252747</v>
-      </c>
-      <c r="X15">
-        <v>2.175463816693268</v>
-      </c>
-      <c r="Y15">
-        <v>2.306979482028937</v>
-      </c>
-      <c r="Z15">
-        <v>2.214251681313772</v>
-      </c>
-      <c r="AA15">
-        <v>2.168907011988219</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.214251681313772</v>
+        <v>1.113438701074854</v>
       </c>
       <c r="AC15">
-        <v>1.976124254426526</v>
+        <v>1.029818099361512</v>
       </c>
       <c r="AD15">
-        <v>1.976124254426526</v>
+        <v>0.9434554177356613</v>
       </c>
       <c r="AE15">
-        <v>1.976124254426526</v>
+        <v>0.934650364284062</v>
       </c>
       <c r="AF15">
-        <v>1.976124254426526</v>
+        <v>-1.030455917249229</v>
       </c>
       <c r="AG15">
-        <v>1.976124254426526</v>
+        <v>-26.14549659067491</v>
       </c>
       <c r="AH15">
-        <v>1.976124254426526</v>
+        <v>-2.354971109033133</v>
       </c>
       <c r="AI15">
-        <v>1.976124254426526</v>
+        <v>0.1158916911022878</v>
       </c>
       <c r="AJ15">
-        <v>1.976124254426526</v>
+        <v>0.2860053465882473</v>
       </c>
       <c r="AK15">
-        <v>1.976124254426526</v>
+        <v>0.4805388623355888</v>
       </c>
       <c r="AL15">
-        <v>1.976124254426526</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="AM15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AN15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AO15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AP15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AQ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AR15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AS15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AT15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AU15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AV15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AW15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AX15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AY15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AZ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="BA15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.310911252469893</v>
-      </c>
-      <c r="V16">
-        <v>1.445095577630107</v>
-      </c>
-      <c r="W16">
-        <v>1.486421985254816</v>
-      </c>
-      <c r="X16">
-        <v>1.290682042302871</v>
-      </c>
-      <c r="Y16">
-        <v>1.375814392482444</v>
-      </c>
-      <c r="Z16">
-        <v>0.6374750548026054</v>
-      </c>
-      <c r="AA16">
-        <v>0.4816924525496313</v>
-      </c>
-      <c r="AB16">
-        <v>0.7385331577992593</v>
-      </c>
-      <c r="AC16">
-        <v>0.6388168203515399</v>
-      </c>
-      <c r="AD16">
-        <v>0.6066442151010376</v>
-      </c>
-      <c r="AE16">
-        <v>0.6401509985818787</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.7060158009350337</v>
+        <v>0.4777641495149032</v>
       </c>
       <c r="AG16">
-        <v>0.7060158009350337</v>
+        <v>-13.58514649067985</v>
       </c>
       <c r="AH16">
-        <v>0.7060158009350337</v>
+        <v>0.6785303229722484</v>
       </c>
       <c r="AI16">
-        <v>0.7060158009350337</v>
+        <v>0.5947926240227552</v>
       </c>
       <c r="AJ16">
-        <v>0.7060158009350337</v>
+        <v>0.8288333393985159</v>
       </c>
       <c r="AK16">
-        <v>0.7060158009350337</v>
+        <v>1.028660868171882</v>
       </c>
       <c r="AL16">
-        <v>0.7060158009350337</v>
+        <v>1.661735028110978</v>
       </c>
       <c r="AM16">
-        <v>0.7060158009350337</v>
+        <v>2.057199970983459</v>
       </c>
       <c r="AN16">
-        <v>0.7060158009350337</v>
+        <v>2.073212743634323</v>
       </c>
       <c r="AO16">
-        <v>0.7060158009350337</v>
+        <v>2.280775510838828</v>
       </c>
       <c r="AP16">
-        <v>0.7060158009350337</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="AQ16">
-        <v>0.7060158009350337</v>
+        <v>2.329145926710607</v>
       </c>
       <c r="AR16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AS16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AT16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AU16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AV16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AW16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AX16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AY16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AZ16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="BA16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.307194715337445</v>
-      </c>
-      <c r="Y17">
-        <v>1.203559142803612</v>
-      </c>
-      <c r="Z17">
-        <v>1.073293573322642</v>
-      </c>
-      <c r="AA17">
-        <v>0.9776390272966617</v>
-      </c>
-      <c r="AB17">
-        <v>1.193318741914795</v>
-      </c>
-      <c r="AC17">
-        <v>0.7331704885201074</v>
-      </c>
-      <c r="AD17">
-        <v>0.57214245765278</v>
-      </c>
-      <c r="AE17">
-        <v>0.4580828524435532</v>
-      </c>
-      <c r="AF17">
-        <v>-1.986210268830169</v>
-      </c>
-      <c r="AG17">
-        <v>-8.242174525718626</v>
-      </c>
-      <c r="AH17">
-        <v>-4.207901339433196</v>
-      </c>
-      <c r="AI17">
-        <v>-4.227675443964363</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.180878843351321</v>
+        <v>1.055750296619218</v>
       </c>
       <c r="AK17">
-        <v>-4.180878843351321</v>
+        <v>1.198867053115005</v>
       </c>
       <c r="AL17">
-        <v>-4.180878843351321</v>
+        <v>1.353699150685816</v>
       </c>
       <c r="AM17">
-        <v>-4.180878843351321</v>
+        <v>1.33917161313224</v>
       </c>
       <c r="AN17">
-        <v>-4.180878843351321</v>
+        <v>1.314001387741381</v>
       </c>
       <c r="AO17">
-        <v>-4.180878843351321</v>
+        <v>1.248471288055364</v>
       </c>
       <c r="AP17">
-        <v>-4.180878843351321</v>
+        <v>1.255295035968373</v>
       </c>
       <c r="AQ17">
-        <v>-4.180878843351321</v>
+        <v>0.7685013195685375</v>
       </c>
       <c r="AR17">
-        <v>-4.180878843351321</v>
+        <v>0.1702535274276551</v>
       </c>
       <c r="AS17">
-        <v>-4.180878843351321</v>
+        <v>0.05190692403960195</v>
       </c>
       <c r="AT17">
-        <v>-4.180878843351321</v>
+        <v>0.0464415346324687</v>
       </c>
       <c r="AU17">
-        <v>-4.180878843351321</v>
+        <v>0.09917655306328488</v>
       </c>
       <c r="AV17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AW17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AX17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AY17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AZ17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="BA17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.113438701074831</v>
-      </c>
-      <c r="AC18">
-        <v>1.029818099361512</v>
-      </c>
-      <c r="AD18">
-        <v>0.9434554177356835</v>
-      </c>
-      <c r="AE18">
-        <v>0.9346503642840398</v>
-      </c>
-      <c r="AF18">
-        <v>-1.030455917249229</v>
-      </c>
-      <c r="AG18">
-        <v>-26.14549659067492</v>
-      </c>
-      <c r="AH18">
-        <v>-2.354971109033133</v>
-      </c>
-      <c r="AI18">
-        <v>0.1158916911022878</v>
-      </c>
-      <c r="AJ18">
-        <v>0.2860053465882251</v>
-      </c>
-      <c r="AK18">
-        <v>0.4805388623355888</v>
-      </c>
-      <c r="AL18">
-        <v>1.099928004397532</v>
-      </c>
-      <c r="AM18">
-        <v>1.312484974417272</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.312484974417272</v>
+        <v>1.293130449632818</v>
       </c>
       <c r="AO18">
-        <v>1.312484974417272</v>
+        <v>1.195058132281068</v>
       </c>
       <c r="AP18">
-        <v>1.312484974417272</v>
+        <v>1.140292164018275</v>
       </c>
       <c r="AQ18">
-        <v>1.312484974417272</v>
+        <v>1.115540202483811</v>
       </c>
       <c r="AR18">
-        <v>1.312484974417272</v>
+        <v>0.9294108124177525</v>
       </c>
       <c r="AS18">
-        <v>1.312484974417272</v>
+        <v>0.816656425452944</v>
       </c>
       <c r="AT18">
-        <v>1.312484974417272</v>
+        <v>0.6780125808669935</v>
       </c>
       <c r="AU18">
-        <v>1.312484974417272</v>
+        <v>0.2631482316476808</v>
       </c>
       <c r="AV18">
-        <v>1.312484974417272</v>
+        <v>0.0356275218485802</v>
       </c>
       <c r="AW18">
-        <v>1.312484974417272</v>
+        <v>-0.1509516149670764</v>
       </c>
       <c r="AX18">
-        <v>1.312484974417272</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="AY18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="AZ18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="BA18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.4777641495149254</v>
-      </c>
-      <c r="AG19">
-        <v>-13.58514649067983</v>
-      </c>
-      <c r="AH19">
-        <v>0.6785303229722039</v>
-      </c>
-      <c r="AI19">
-        <v>0.594792624022733</v>
-      </c>
-      <c r="AJ19">
-        <v>0.8288333393984937</v>
-      </c>
-      <c r="AK19">
-        <v>1.02866086817186</v>
-      </c>
-      <c r="AL19">
-        <v>1.661735028110956</v>
-      </c>
-      <c r="AM19">
-        <v>2.057199970983437</v>
-      </c>
-      <c r="AN19">
-        <v>2.073212743634301</v>
-      </c>
-      <c r="AO19">
-        <v>2.280775510838828</v>
-      </c>
-      <c r="AP19">
-        <v>2.310042359896225</v>
-      </c>
-      <c r="AQ19">
-        <v>2.329145926710607</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.386394320099239</v>
+        <v>0.9531369886254026</v>
       </c>
       <c r="AS19">
-        <v>2.386394320099239</v>
+        <v>0.8936271672304485</v>
       </c>
       <c r="AT19">
-        <v>2.386394320099239</v>
+        <v>0.8549922354194717</v>
       </c>
       <c r="AU19">
-        <v>2.386394320099239</v>
+        <v>0.8874238669137835</v>
       </c>
       <c r="AV19">
-        <v>2.386394320099239</v>
+        <v>0.8589821564190636</v>
       </c>
       <c r="AW19">
-        <v>2.386394320099239</v>
+        <v>0.7654957281474584</v>
       </c>
       <c r="AX19">
-        <v>2.386394320099239</v>
+        <v>0.6241787054042991</v>
       </c>
       <c r="AY19">
-        <v>2.386394320099239</v>
+        <v>0.2326854252627131</v>
       </c>
       <c r="AZ19">
-        <v>2.386394320099239</v>
+        <v>0.2540664354640843</v>
       </c>
       <c r="BA19">
-        <v>2.386394320099239</v>
+        <v>-0.0289501288744165</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>1.055750296619218</v>
-      </c>
-      <c r="AK20">
-        <v>1.198867053115005</v>
-      </c>
-      <c r="AL20">
-        <v>1.353699150685816</v>
-      </c>
-      <c r="AM20">
-        <v>1.339171613132217</v>
-      </c>
-      <c r="AN20">
-        <v>1.314001387741381</v>
-      </c>
-      <c r="AO20">
-        <v>1.248471288055364</v>
-      </c>
-      <c r="AP20">
-        <v>1.255295035968396</v>
-      </c>
-      <c r="AQ20">
-        <v>0.7685013195685153</v>
-      </c>
-      <c r="AR20">
-        <v>0.1702535274276551</v>
-      </c>
-      <c r="AS20">
-        <v>0.05190692403960195</v>
-      </c>
-      <c r="AT20">
-        <v>0.0464415346324687</v>
-      </c>
-      <c r="AU20">
-        <v>0.09917655306330708</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.2104414886460626</v>
+        <v>0.8281721614376236</v>
       </c>
       <c r="AW20">
-        <v>0.2104414886460626</v>
+        <v>0.7970535393478917</v>
       </c>
       <c r="AX20">
-        <v>0.2104414886460626</v>
+        <v>0.7700438569670176</v>
       </c>
       <c r="AY20">
-        <v>0.2104414886460626</v>
+        <v>0.8248503612397817</v>
       </c>
       <c r="AZ20">
-        <v>0.2104414886460626</v>
+        <v>0.8698260125443502</v>
       </c>
       <c r="BA20">
-        <v>0.2104414886460626</v>
+        <v>0.7335820593375564</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.293130449632818</v>
-      </c>
-      <c r="AO21">
-        <v>1.195058132281046</v>
-      </c>
-      <c r="AP21">
-        <v>1.140292164018275</v>
-      </c>
-      <c r="AQ21">
-        <v>1.115540202483833</v>
-      </c>
-      <c r="AR21">
-        <v>0.9294108124177747</v>
-      </c>
-      <c r="AS21">
-        <v>0.8166564254529218</v>
-      </c>
-      <c r="AT21">
-        <v>0.6780125808669935</v>
-      </c>
-      <c r="AU21">
-        <v>0.263148231647703</v>
-      </c>
-      <c r="AV21">
-        <v>0.0356275218485802</v>
-      </c>
-      <c r="AW21">
-        <v>-0.1509516149670653</v>
-      </c>
-      <c r="AX21">
-        <v>-0.3101476031197148</v>
-      </c>
-      <c r="AY21">
-        <v>-0.3095793941792713</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.3095793941792713</v>
+        <v>0.8324456569078098</v>
       </c>
       <c r="BA21">
-        <v>-0.3095793941792713</v>
+        <v>0.7819613210276355</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0.9531369886254026</v>
-      </c>
-      <c r="AS22">
-        <v>0.8936271672304708</v>
-      </c>
-      <c r="AT22">
-        <v>0.8549922354194717</v>
-      </c>
-      <c r="AU22">
-        <v>0.8874238669137835</v>
-      </c>
-      <c r="AV22">
-        <v>0.8589821564190414</v>
-      </c>
-      <c r="AW22">
-        <v>0.7654957281474362</v>
-      </c>
-      <c r="AX22">
-        <v>0.6241787054042991</v>
-      </c>
-      <c r="AY22">
-        <v>0.2326854252627353</v>
-      </c>
-      <c r="AZ22">
-        <v>0.2540664354640843</v>
-      </c>
-      <c r="BA22">
-        <v>-0.02895012887443871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.8281721614376236</v>
-      </c>
-      <c r="AW23">
-        <v>0.7970535393478917</v>
-      </c>
-      <c r="AX23">
-        <v>0.7700438569670176</v>
-      </c>
-      <c r="AY23">
-        <v>0.8248503612397817</v>
-      </c>
-      <c r="AZ23">
-        <v>0.869826012544328</v>
-      </c>
-      <c r="BA23">
-        <v>0.7335820593375564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>0.8324456569078098</v>
-      </c>
-      <c r="BA24">
-        <v>0.7819613210276133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-5.109987415979145</v>
       </c>
+      <c r="BB3">
+        <v>-5.109987415979145</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>2.253603114136604</v>
       </c>
+      <c r="BB4">
+        <v>2.253603114136604</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>3.738382206110891</v>
       </c>
+      <c r="BB5">
+        <v>3.738382206110891</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>1.165974434765671</v>
       </c>
+      <c r="BB6">
+        <v>1.165974434765671</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>-0.0426719751787874</v>
       </c>
+      <c r="BB7">
+        <v>-0.0426719751787874</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>1.529758493743438</v>
       </c>
+      <c r="BB8">
+        <v>1.529758493743438</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>1.358758534900462</v>
       </c>
+      <c r="BB9">
+        <v>1.358758534900462</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>1.664905435092301</v>
       </c>
+      <c r="BB10">
+        <v>1.664905435092301</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>2.145670176886982</v>
       </c>
+      <c r="BB11">
+        <v>2.145670176886982</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>1.976124254426503</v>
       </c>
+      <c r="BB12">
+        <v>1.976124254426503</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>0.7060158009350337</v>
       </c>
+      <c r="BB13">
+        <v>0.7060158009350337</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-4.180878843351332</v>
       </c>
+      <c r="BB14">
+        <v>-4.180878843351332</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>1.312484974417294</v>
       </c>
+      <c r="BB15">
+        <v>1.312484974417294</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>2.386394320099283</v>
       </c>
+      <c r="BB16">
+        <v>2.386394320099283</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>0.2104414886460626</v>
       </c>
+      <c r="BB17">
+        <v>0.2104414886460626</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-0.3095793941792935</v>
       </c>
+      <c r="BB18">
+        <v>-0.3095793941792935</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>-0.0289501288744165</v>
       </c>
+      <c r="BB19">
+        <v>-0.08656168856399082</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>0.7335820593375564</v>
       </c>
+      <c r="BB20">
+        <v>0.6232357314897463</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>0.7819613210276355</v>
       </c>
+      <c r="BB21">
+        <v>0.7596754881313172</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
